--- a/biology/Microbiologie/Lentisphaerota/Lentisphaerota.xlsx
+++ b/biology/Microbiologie/Lentisphaerota/Lentisphaerota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lentisphaerota sont un embranchement du règne des Bacteria. Son nom provient de Lentisphaera qui est le genre type de cet embranchement.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de Lentisphaerota est la suivante : Len.ti.sphae.ro’ta N.L. fem. n. Lentisphaera, genre type du phylum; N.L. neut. pl. n. suff. -ota, suffixe utilisé pour définir un phylum; N.L. neut. pl. n. Lentisphaerota, le phylum des Lentisphaera[1],[2].
-Nomenclature
-Cet embranchement est proposé dès 2004 par JC. Cho et al. sous le nom de « Lentisphaerae » pour recevoir l'espèce Lentisphaera araneosa isolée d'eau de mer[3]. Ce n'est qu'en 2021 qu'il est publié de manière valide par Oren et Garrity[4] après un renommage conforme au code de nomenclature bactérienne (le nom de l'embranchement devant être dérivé de celui de son genre type, en l'occurrence Lentisphaeara, par adjonction du suffixe -ota conformément à une décision de l'ICSP en 2021[5]).
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de Lentisphaerota est la suivante : Len.ti.sphae.ro’ta N.L. fem. n. Lentisphaera, genre type du phylum; N.L. neut. pl. n. suff. -ota, suffixe utilisé pour définir un phylum; N.L. neut. pl. n. Lentisphaerota, le phylum des Lentisphaera,.
 </t>
         </is>
       </c>
@@ -542,12 +557,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet embranchement est proposé dès 2004 par JC. Cho et al. sous le nom de « Lentisphaerae » pour recevoir l'espèce Lentisphaera araneosa isolée d'eau de mer. Ce n'est qu'en 2021 qu'il est publié de manière valide par Oren et Garrity après un renommage conforme au code de nomenclature bactérienne (le nom de l'embranchement devant être dérivé de celui de son genre type, en l'occurrence Lentisphaeara, par adjonction du suffixe -ota conformément à une décision de l'ICSP en 2021).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lentisphaerota</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lentisphaerota</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste des classes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (13 novembre 2022)[6], le phylum Lentisphaerota comprend deux classes :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (13 novembre 2022), le phylum Lentisphaerota comprend deux classes :
 Lentisphaeria Cho et al. 2012
 Oligosphaeria Qiu et al. 2013</t>
         </is>
